--- a/biology/Zoologie/Hyloxalus/Hyloxalus.xlsx
+++ b/biology/Zoologie/Hyloxalus/Hyloxalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyloxalus est un genre d'amphibiens de la famille des Dendrobatidae, le seul de la sous-famille des Hyloxalinae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyloxalus est un genre d'amphibiens de la famille des Dendrobatidae, le seul de la sous-famille des Hyloxalinae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 59 espèces de ce genre se rencontrent sur cordillère des Andes, dans l'ouest du bassin amazonien et au Panama[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 59 espèces de ce genre se rencontrent sur cordillère des Andes, dans l'ouest du bassin amazonien et au Panama.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Amphibian Species of the World                      (11 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Amphibian Species of the World                      (11 juin 2017) :
 Hyloxalus abditaurantius (Silverstone, 1975)
 Hyloxalus aeruginosus (Duellman, 2004)
 Hyloxalus anthracinus (Edwards, 1971)
@@ -632,7 +648,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jiménez de la Espada, 1870 : Faunae neotropicalis species quaedam nondum cognitae. Jornal de sciencias mathematicas, physicas e naturaes, Academia Real das Sciencas de Lisboa, vol. 3, p. 57-65 (texte intégral).
 Grant, Frost, Caldwell, Gagliardo, Haddad, Kok, Means, Noonan, Schargel &amp; Wheeler, 2006 : Phylogenetic systematics of dart-poison frogs and their relatives (Amphibia: Athesphatanura: Dendrobatidae).  Bulletin of the American Museum of Natural History, no 299, p. 1-262 (texte intégral).</t>
